--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1229.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1229.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.95691494170978</v>
+        <v>1.201709032058716</v>
       </c>
       <c r="B1">
-        <v>2.838270901672347</v>
+        <v>1.948946118354797</v>
       </c>
       <c r="C1">
-        <v>2.296814312560738</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.074026591275482</v>
+        <v>1.964933753013611</v>
       </c>
       <c r="E1">
-        <v>1.689860175190376</v>
+        <v>1.205845594406128</v>
       </c>
     </row>
   </sheetData>
